--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10203_Project_Update.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10203_Project_Update.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006FE3A4-0BA5-4D13-9293-11461A6671D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE76814D-F0D8-44CA-B9ED-048C76AC156E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="6210" windowWidth="27030" windowHeight="8370" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1 Confirmation of update" sheetId="23" r:id="rId1"/>
@@ -27,17 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'1.3 Confirmation of Completion'!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.4. Subfunction unit'!$1:$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1687,9 +1677,6 @@
     <t>Confirmation of subfunction execution</t>
   </si>
   <si>
-    <t>Screen transition pattern (*1)</t>
-  </si>
-  <si>
     <t>Normal subfunction</t>
   </si>
   <si>
@@ -1984,6 +1971,10 @@
   </si>
   <si>
     <t>Same as above</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen transition pattern</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -8980,12 +8971,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -9063,6 +9048,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="317" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -9521,7 +9512,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="319" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I6" s="319" t="s">
         <v>188</v>
@@ -9535,7 +9526,7 @@
         <v>186</v>
       </c>
       <c r="I7" s="319" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J7" s="319" t="s">
         <v>190</v>
@@ -9582,11 +9573,11 @@
       <c r="E10" s="829" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="844" t="s">
+      <c r="F10" s="842" t="s">
+        <v>448</v>
+      </c>
+      <c r="G10" s="843" t="s">
         <v>449</v>
-      </c>
-      <c r="G10" s="845" t="s">
-        <v>450</v>
       </c>
       <c r="H10" s="830" t="s">
         <v>196</v>
@@ -9624,7 +9615,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="329" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C11" s="114" t="s">
         <v>197</v>
@@ -9647,7 +9638,7 @@
       </c>
       <c r="L11" s="331"/>
       <c r="M11" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N11" s="333">
         <v>43900</v>
@@ -9676,7 +9667,7 @@
       </c>
       <c r="L12" s="343"/>
       <c r="M12" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N12" s="333">
         <v>43900</v>
@@ -9707,7 +9698,7 @@
       </c>
       <c r="L13" s="331"/>
       <c r="M13" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N13" s="333">
         <v>43900</v>
@@ -10063,17 +10054,17 @@
       </c>
       <c r="B25" s="107"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="846" t="s">
+      <c r="D25" s="844" t="s">
+        <v>450</v>
+      </c>
+      <c r="E25" s="845" t="s">
         <v>451</v>
       </c>
-      <c r="E25" s="847" t="s">
+      <c r="F25" s="846" t="s">
         <v>452</v>
       </c>
-      <c r="F25" s="848" t="s">
+      <c r="G25" s="847" t="s">
         <v>453</v>
-      </c>
-      <c r="G25" s="849" t="s">
-        <v>454</v>
       </c>
       <c r="H25" s="532" t="s">
         <v>198</v>
@@ -10098,13 +10089,13 @@
       <c r="C26" s="11"/>
       <c r="D26" s="169"/>
       <c r="E26" s="526" t="s">
+        <v>454</v>
+      </c>
+      <c r="F26" s="412" t="s">
+        <v>452</v>
+      </c>
+      <c r="G26" s="413" t="s">
         <v>455</v>
-      </c>
-      <c r="F26" s="412" t="s">
-        <v>453</v>
-      </c>
-      <c r="G26" s="413" t="s">
-        <v>456</v>
       </c>
       <c r="H26" s="532" t="s">
         <v>198</v>
@@ -10129,13 +10120,13 @@
       <c r="C27" s="11"/>
       <c r="D27" s="169"/>
       <c r="E27" s="526" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F27" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G27" s="413" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H27" s="532" t="s">
         <v>198</v>
@@ -10160,13 +10151,13 @@
       <c r="C28" s="11"/>
       <c r="D28" s="169"/>
       <c r="E28" s="526" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F28" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G28" s="413" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H28" s="532" t="s">
         <v>198</v>
@@ -11126,7 +11117,7 @@
         <v>181</v>
       </c>
       <c r="M60" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N60" s="333">
         <v>43900</v>
@@ -11165,7 +11156,7 @@
         <v>181</v>
       </c>
       <c r="M61" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N61" s="333">
         <v>43900</v>
@@ -11204,7 +11195,7 @@
         <v>181</v>
       </c>
       <c r="M62" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N62" s="333">
         <v>43900</v>
@@ -11243,7 +11234,7 @@
         <v>181</v>
       </c>
       <c r="M63" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N63" s="333">
         <v>43900</v>
@@ -11282,7 +11273,7 @@
         <v>181</v>
       </c>
       <c r="M64" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N64" s="333">
         <v>43900</v>
@@ -11412,7 +11403,7 @@
         <v>181</v>
       </c>
       <c r="M68" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N68" s="333">
         <v>43900</v>
@@ -11451,7 +11442,7 @@
         <v>181</v>
       </c>
       <c r="M69" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N69" s="333">
         <v>43900</v>
@@ -11490,7 +11481,7 @@
       </c>
       <c r="L70" s="343"/>
       <c r="M70" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N70" s="333">
         <v>43900</v>
@@ -11527,7 +11518,7 @@
       </c>
       <c r="L71" s="343"/>
       <c r="M71" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N71" s="333">
         <v>43900</v>
@@ -11575,18 +11566,18 @@
       <c r="C73" s="11"/>
       <c r="D73" s="147"/>
       <c r="E73" s="218" t="s">
+        <v>458</v>
+      </c>
+      <c r="F73" s="412" t="s">
+        <v>452</v>
+      </c>
+      <c r="G73" s="413" t="s">
         <v>459</v>
-      </c>
-      <c r="F73" s="412" t="s">
-        <v>453</v>
-      </c>
-      <c r="G73" s="413" t="s">
-        <v>460</v>
       </c>
       <c r="H73" s="632" t="s">
         <v>198</v>
       </c>
-      <c r="I73" s="850" t="s">
+      <c r="I73" s="848" t="s">
         <v>315</v>
       </c>
       <c r="J73" s="30"/>
@@ -11862,7 +11853,7 @@
       </c>
       <c r="L82" s="343"/>
       <c r="M82" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N82" s="333">
         <v>43900</v>
@@ -11899,7 +11890,7 @@
       </c>
       <c r="L83" s="343"/>
       <c r="M83" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N83" s="333">
         <v>43900</v>
@@ -11974,21 +11965,21 @@
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
-      <c r="D86" s="851" t="s">
+      <c r="D86" s="849" t="s">
+        <v>460</v>
+      </c>
+      <c r="E86" s="850"/>
+      <c r="F86" s="412" t="s">
+        <v>452</v>
+      </c>
+      <c r="G86" s="413" t="s">
         <v>461</v>
-      </c>
-      <c r="E86" s="852"/>
-      <c r="F86" s="412" t="s">
-        <v>453</v>
-      </c>
-      <c r="G86" s="413" t="s">
-        <v>462</v>
       </c>
       <c r="H86" s="632" t="s">
         <v>198</v>
       </c>
       <c r="I86" s="523" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J86" s="30"/>
       <c r="K86" s="30"/>
@@ -12029,7 +12020,7 @@
         <v>181</v>
       </c>
       <c r="M87" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N87" s="333">
         <v>43900</v>
@@ -12132,7 +12123,7 @@
         <v>181</v>
       </c>
       <c r="M90" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N90" s="333">
         <v>43900</v>
@@ -12171,7 +12162,7 @@
         <v>181</v>
       </c>
       <c r="M91" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N91" s="333">
         <v>43900</v>
@@ -12210,7 +12201,7 @@
         <v>181</v>
       </c>
       <c r="M92" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N92" s="333">
         <v>43900</v>
@@ -12228,17 +12219,17 @@
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="644" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E93" s="566"/>
       <c r="F93" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G93" s="413" t="s">
+        <v>464</v>
+      </c>
+      <c r="H93" s="303" t="s">
         <v>465</v>
-      </c>
-      <c r="H93" s="303" t="s">
-        <v>466</v>
       </c>
       <c r="I93" s="303" t="s">
         <v>343</v>
@@ -12259,17 +12250,17 @@
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="644" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E94" s="566"/>
       <c r="F94" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G94" s="413" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H94" s="303" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I94" s="303" t="s">
         <v>343</v>
@@ -12289,18 +12280,18 @@
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
-      <c r="D95" s="853" t="s">
-        <v>468</v>
+      <c r="D95" s="851" t="s">
+        <v>467</v>
       </c>
       <c r="E95" s="566"/>
       <c r="F95" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G95" s="413" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H95" s="303" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I95" s="303" t="s">
         <v>343</v>
@@ -12321,17 +12312,17 @@
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="644" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E96" s="566"/>
       <c r="F96" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G96" s="413" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H96" s="303" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I96" s="303" t="s">
         <v>343</v>
@@ -12352,17 +12343,17 @@
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="644" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E97" s="566"/>
       <c r="F97" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G97" s="413" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H97" s="303" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I97" s="303" t="s">
         <v>343</v>
@@ -12402,7 +12393,7 @@
       </c>
       <c r="L98" s="469"/>
       <c r="M98" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N98" s="333">
         <v>43900</v>
@@ -12433,7 +12424,7 @@
       </c>
       <c r="L99" s="469"/>
       <c r="M99" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N99" s="333">
         <v>43900</v>
@@ -12501,7 +12492,7 @@
         <v>181</v>
       </c>
       <c r="M101" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N101" s="333">
         <v>43900</v>
@@ -12538,7 +12529,7 @@
       </c>
       <c r="L102" s="343"/>
       <c r="M102" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N102" s="333">
         <v>43900</v>
@@ -12585,19 +12576,19 @@
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="644" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E104" s="566"/>
       <c r="F104" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G104" s="413" t="s">
-        <v>472</v>
-      </c>
-      <c r="H104" s="854" t="s">
-        <v>466</v>
-      </c>
-      <c r="I104" s="854" t="s">
+        <v>471</v>
+      </c>
+      <c r="H104" s="852" t="s">
+        <v>465</v>
+      </c>
+      <c r="I104" s="852" t="s">
         <v>343</v>
       </c>
       <c r="J104" s="37"/>
@@ -12709,17 +12700,17 @@
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="310" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E108" s="311"/>
       <c r="F108" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G108" s="413" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H108" s="147" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I108" s="147" t="s">
         <v>343</v>
@@ -12740,19 +12731,19 @@
       <c r="B109" s="111"/>
       <c r="C109" s="111"/>
       <c r="D109" s="647" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E109" s="648"/>
       <c r="F109" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G109" s="413" t="s">
-        <v>476</v>
-      </c>
-      <c r="H109" s="855" t="s">
-        <v>466</v>
-      </c>
-      <c r="I109" s="855" t="s">
+        <v>475</v>
+      </c>
+      <c r="H109" s="853" t="s">
+        <v>465</v>
+      </c>
+      <c r="I109" s="853" t="s">
         <v>238</v>
       </c>
       <c r="J109" s="44"/>
@@ -12999,7 +12990,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="319" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I6" s="319" t="s">
         <v>188</v>
@@ -13013,7 +13004,7 @@
         <v>186</v>
       </c>
       <c r="I7" s="319" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J7" s="319" t="s">
         <v>190</v>
@@ -13060,11 +13051,11 @@
       <c r="E10" s="836" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="856" t="s">
+      <c r="F10" s="854" t="s">
+        <v>448</v>
+      </c>
+      <c r="G10" s="855" t="s">
         <v>449</v>
-      </c>
-      <c r="G10" s="857" t="s">
-        <v>450</v>
       </c>
       <c r="H10" s="837" t="s">
         <v>196</v>
@@ -13127,7 +13118,7 @@
         <v>181</v>
       </c>
       <c r="M11" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N11" s="333">
         <v>43900</v>
@@ -13351,17 +13342,17 @@
       </c>
       <c r="B19" s="107"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="846" t="s">
+      <c r="D19" s="844" t="s">
+        <v>450</v>
+      </c>
+      <c r="E19" s="526" t="s">
         <v>451</v>
       </c>
-      <c r="E19" s="526" t="s">
+      <c r="F19" s="412" t="s">
         <v>452</v>
       </c>
-      <c r="F19" s="412" t="s">
+      <c r="G19" s="413" t="s">
         <v>453</v>
-      </c>
-      <c r="G19" s="413" t="s">
-        <v>454</v>
       </c>
       <c r="H19" s="532" t="s">
         <v>198</v>
@@ -13386,13 +13377,13 @@
       <c r="C20" s="11"/>
       <c r="D20" s="169"/>
       <c r="E20" s="526" t="s">
+        <v>454</v>
+      </c>
+      <c r="F20" s="412" t="s">
+        <v>452</v>
+      </c>
+      <c r="G20" s="413" t="s">
         <v>455</v>
-      </c>
-      <c r="F20" s="412" t="s">
-        <v>453</v>
-      </c>
-      <c r="G20" s="413" t="s">
-        <v>456</v>
       </c>
       <c r="H20" s="532" t="s">
         <v>198</v>
@@ -13417,13 +13408,13 @@
       <c r="C21" s="11"/>
       <c r="D21" s="169"/>
       <c r="E21" s="526" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F21" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G21" s="413" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H21" s="532" t="s">
         <v>198</v>
@@ -13448,13 +13439,13 @@
       <c r="C22" s="11"/>
       <c r="D22" s="169"/>
       <c r="E22" s="526" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F22" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G22" s="413" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H22" s="532" t="s">
         <v>198</v>
@@ -14414,7 +14405,7 @@
         <v>181</v>
       </c>
       <c r="M54" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N54" s="333">
         <v>43900</v>
@@ -14453,7 +14444,7 @@
         <v>181</v>
       </c>
       <c r="M55" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N55" s="333">
         <v>43900</v>
@@ -14492,7 +14483,7 @@
         <v>181</v>
       </c>
       <c r="M56" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N56" s="333">
         <v>43900</v>
@@ -14531,7 +14522,7 @@
         <v>181</v>
       </c>
       <c r="M57" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N57" s="333">
         <v>43900</v>
@@ -14570,7 +14561,7 @@
         <v>181</v>
       </c>
       <c r="M58" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N58" s="333">
         <v>43900</v>
@@ -14700,7 +14691,7 @@
         <v>181</v>
       </c>
       <c r="M62" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N62" s="333">
         <v>43900</v>
@@ -14739,7 +14730,7 @@
         <v>181</v>
       </c>
       <c r="M63" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N63" s="333">
         <v>43900</v>
@@ -14778,7 +14769,7 @@
       </c>
       <c r="L64" s="343"/>
       <c r="M64" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N64" s="333">
         <v>43900</v>
@@ -14815,7 +14806,7 @@
       </c>
       <c r="L65" s="343"/>
       <c r="M65" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N65" s="333">
         <v>43900</v>
@@ -14863,18 +14854,18 @@
       <c r="C67" s="11"/>
       <c r="D67" s="147"/>
       <c r="E67" s="218" t="s">
+        <v>458</v>
+      </c>
+      <c r="F67" s="412" t="s">
+        <v>452</v>
+      </c>
+      <c r="G67" s="413" t="s">
         <v>459</v>
-      </c>
-      <c r="F67" s="412" t="s">
-        <v>453</v>
-      </c>
-      <c r="G67" s="413" t="s">
-        <v>460</v>
       </c>
       <c r="H67" s="632" t="s">
         <v>198</v>
       </c>
-      <c r="I67" s="850" t="s">
+      <c r="I67" s="848" t="s">
         <v>315</v>
       </c>
       <c r="J67" s="30"/>
@@ -15246,21 +15237,21 @@
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
-      <c r="D80" s="851" t="s">
+      <c r="D80" s="849" t="s">
+        <v>460</v>
+      </c>
+      <c r="E80" s="850"/>
+      <c r="F80" s="412" t="s">
+        <v>452</v>
+      </c>
+      <c r="G80" s="413" t="s">
         <v>461</v>
-      </c>
-      <c r="E80" s="852"/>
-      <c r="F80" s="412" t="s">
-        <v>453</v>
-      </c>
-      <c r="G80" s="413" t="s">
-        <v>462</v>
       </c>
       <c r="H80" s="632" t="s">
         <v>198</v>
       </c>
       <c r="I80" s="523" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J80" s="70"/>
       <c r="K80" s="70"/>
@@ -15301,7 +15292,7 @@
         <v>181</v>
       </c>
       <c r="M81" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N81" s="333">
         <v>43900</v>
@@ -15342,7 +15333,7 @@
         <v>181</v>
       </c>
       <c r="M82" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N82" s="333">
         <v>43900</v>
@@ -15410,7 +15401,7 @@
         <v>181</v>
       </c>
       <c r="M84" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N84" s="333">
         <v>43900</v>
@@ -15449,7 +15440,7 @@
         <v>181</v>
       </c>
       <c r="M85" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N85" s="333">
         <v>43900</v>
@@ -15488,7 +15479,7 @@
         <v>181</v>
       </c>
       <c r="M86" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N86" s="333">
         <v>43900</v>
@@ -15506,17 +15497,17 @@
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="644" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E87" s="566"/>
       <c r="F87" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G87" s="413" t="s">
+        <v>464</v>
+      </c>
+      <c r="H87" s="303" t="s">
         <v>465</v>
-      </c>
-      <c r="H87" s="303" t="s">
-        <v>466</v>
       </c>
       <c r="I87" s="303" t="s">
         <v>343</v>
@@ -15537,17 +15528,17 @@
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="644" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E88" s="566"/>
       <c r="F88" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G88" s="413" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H88" s="303" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I88" s="303" t="s">
         <v>343</v>
@@ -15567,18 +15558,18 @@
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
-      <c r="D89" s="853" t="s">
-        <v>468</v>
+      <c r="D89" s="851" t="s">
+        <v>467</v>
       </c>
       <c r="E89" s="566"/>
       <c r="F89" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G89" s="413" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H89" s="303" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I89" s="303" t="s">
         <v>343</v>
@@ -15599,17 +15590,17 @@
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="644" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E90" s="566"/>
       <c r="F90" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G90" s="413" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H90" s="303" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I90" s="303" t="s">
         <v>343</v>
@@ -15630,17 +15621,17 @@
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="644" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E91" s="566"/>
       <c r="F91" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G91" s="413" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H91" s="303" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I91" s="303" t="s">
         <v>343</v>
@@ -15682,7 +15673,7 @@
         <v>181</v>
       </c>
       <c r="M92" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N92" s="333">
         <v>43900</v>
@@ -15750,7 +15741,7 @@
         <v>181</v>
       </c>
       <c r="M94" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N94" s="333">
         <v>43900</v>
@@ -15826,19 +15817,19 @@
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="644" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E97" s="566"/>
       <c r="F97" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G97" s="413" t="s">
-        <v>472</v>
-      </c>
-      <c r="H97" s="854" t="s">
-        <v>466</v>
-      </c>
-      <c r="I97" s="854" t="s">
+        <v>471</v>
+      </c>
+      <c r="H97" s="852" t="s">
+        <v>465</v>
+      </c>
+      <c r="I97" s="852" t="s">
         <v>343</v>
       </c>
       <c r="J97" s="77"/>
@@ -15934,7 +15925,7 @@
       </c>
       <c r="L100" s="594"/>
       <c r="M100" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N100" s="333">
         <v>43900</v>
@@ -15952,17 +15943,17 @@
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="310" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E101" s="311"/>
       <c r="F101" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G101" s="413" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H101" s="147" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I101" s="147" t="s">
         <v>343</v>
@@ -15983,19 +15974,19 @@
       <c r="B102" s="111"/>
       <c r="C102" s="111"/>
       <c r="D102" s="647" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E102" s="648"/>
       <c r="F102" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G102" s="413" t="s">
-        <v>476</v>
-      </c>
-      <c r="H102" s="855" t="s">
-        <v>466</v>
-      </c>
-      <c r="I102" s="855" t="s">
+        <v>475</v>
+      </c>
+      <c r="H102" s="853" t="s">
+        <v>465</v>
+      </c>
+      <c r="I102" s="853" t="s">
         <v>238</v>
       </c>
       <c r="J102" s="78"/>
@@ -16242,7 +16233,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="319" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I6" s="319" t="s">
         <v>188</v>
@@ -16256,7 +16247,7 @@
         <v>186</v>
       </c>
       <c r="I7" s="319" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J7" s="319" t="s">
         <v>190</v>
@@ -16303,11 +16294,11 @@
       <c r="E10" s="840" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="856" t="s">
+      <c r="F10" s="854" t="s">
+        <v>448</v>
+      </c>
+      <c r="G10" s="855" t="s">
         <v>449</v>
-      </c>
-      <c r="G10" s="857" t="s">
-        <v>450</v>
       </c>
       <c r="H10" s="841" t="s">
         <v>196</v>
@@ -16370,7 +16361,7 @@
         <v>181</v>
       </c>
       <c r="M11" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N11" s="333">
         <v>43900</v>
@@ -16409,7 +16400,7 @@
         <v>181</v>
       </c>
       <c r="M12" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N12" s="333">
         <v>43900</v>
@@ -16595,7 +16586,7 @@
       </c>
       <c r="L18" s="343"/>
       <c r="M18" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N18" s="333">
         <v>43900</v>
@@ -16612,17 +16603,17 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="846" t="s">
+      <c r="D19" s="844" t="s">
+        <v>450</v>
+      </c>
+      <c r="E19" s="526" t="s">
         <v>451</v>
       </c>
-      <c r="E19" s="526" t="s">
+      <c r="F19" s="412" t="s">
         <v>452</v>
       </c>
-      <c r="F19" s="412" t="s">
+      <c r="G19" s="413" t="s">
         <v>453</v>
-      </c>
-      <c r="G19" s="413" t="s">
-        <v>454</v>
       </c>
       <c r="H19" s="532" t="s">
         <v>198</v>
@@ -16631,7 +16622,7 @@
         <v>238</v>
       </c>
       <c r="J19" s="521" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K19" s="82"/>
       <c r="L19" s="8"/>
@@ -16649,13 +16640,13 @@
       <c r="C20" s="5"/>
       <c r="D20" s="169"/>
       <c r="E20" s="526" t="s">
+        <v>454</v>
+      </c>
+      <c r="F20" s="412" t="s">
+        <v>452</v>
+      </c>
+      <c r="G20" s="413" t="s">
         <v>455</v>
-      </c>
-      <c r="F20" s="412" t="s">
-        <v>453</v>
-      </c>
-      <c r="G20" s="413" t="s">
-        <v>456</v>
       </c>
       <c r="H20" s="532" t="s">
         <v>198</v>
@@ -16664,7 +16655,7 @@
         <v>238</v>
       </c>
       <c r="J20" s="521" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K20" s="83"/>
       <c r="L20" s="84"/>
@@ -16682,13 +16673,13 @@
       <c r="C21" s="5"/>
       <c r="D21" s="169"/>
       <c r="E21" s="526" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F21" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G21" s="413" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H21" s="532" t="s">
         <v>198</v>
@@ -16697,7 +16688,7 @@
         <v>238</v>
       </c>
       <c r="J21" s="521" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K21" s="83"/>
       <c r="L21" s="84"/>
@@ -16715,13 +16706,13 @@
       <c r="C22" s="5"/>
       <c r="D22" s="169"/>
       <c r="E22" s="526" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F22" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G22" s="413" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H22" s="532" t="s">
         <v>198</v>
@@ -16730,7 +16721,7 @@
         <v>238</v>
       </c>
       <c r="J22" s="521" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K22" s="83"/>
       <c r="L22" s="84"/>
@@ -17683,7 +17674,7 @@
         <v>181</v>
       </c>
       <c r="M54" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N54" s="333">
         <v>43900</v>
@@ -17722,7 +17713,7 @@
         <v>181</v>
       </c>
       <c r="M55" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N55" s="333">
         <v>43900</v>
@@ -17761,7 +17752,7 @@
         <v>181</v>
       </c>
       <c r="M56" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N56" s="333">
         <v>43900</v>
@@ -17800,7 +17791,7 @@
         <v>181</v>
       </c>
       <c r="M57" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N57" s="333">
         <v>43900</v>
@@ -17839,7 +17830,7 @@
         <v>181</v>
       </c>
       <c r="M58" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N58" s="333">
         <v>43900</v>
@@ -17969,7 +17960,7 @@
         <v>181</v>
       </c>
       <c r="M62" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N62" s="333">
         <v>43900</v>
@@ -18008,7 +17999,7 @@
         <v>181</v>
       </c>
       <c r="M63" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N63" s="333">
         <v>43900</v>
@@ -18116,18 +18107,18 @@
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="218" t="s">
+        <v>458</v>
+      </c>
+      <c r="F67" s="412" t="s">
+        <v>452</v>
+      </c>
+      <c r="G67" s="413" t="s">
         <v>459</v>
-      </c>
-      <c r="F67" s="412" t="s">
-        <v>453</v>
-      </c>
-      <c r="G67" s="413" t="s">
-        <v>460</v>
       </c>
       <c r="H67" s="632" t="s">
         <v>198</v>
       </c>
-      <c r="I67" s="850" t="s">
+      <c r="I67" s="848" t="s">
         <v>315</v>
       </c>
       <c r="J67" s="218"/>
@@ -18499,21 +18490,21 @@
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="858" t="s">
+      <c r="D80" s="856" t="s">
+        <v>460</v>
+      </c>
+      <c r="E80" s="857"/>
+      <c r="F80" s="412" t="s">
+        <v>452</v>
+      </c>
+      <c r="G80" s="413" t="s">
         <v>461</v>
-      </c>
-      <c r="E80" s="859"/>
-      <c r="F80" s="412" t="s">
-        <v>453</v>
-      </c>
-      <c r="G80" s="413" t="s">
-        <v>462</v>
       </c>
       <c r="H80" s="632" t="s">
         <v>198</v>
       </c>
       <c r="I80" s="523" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J80" s="88"/>
       <c r="K80" s="88"/>
@@ -18554,7 +18545,7 @@
         <v>181</v>
       </c>
       <c r="M81" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N81" s="333">
         <v>43900</v>
@@ -18595,7 +18586,7 @@
         <v>181</v>
       </c>
       <c r="M82" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N82" s="333">
         <v>43900</v>
@@ -18663,7 +18654,7 @@
         <v>181</v>
       </c>
       <c r="M84" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N84" s="333">
         <v>43900</v>
@@ -18702,7 +18693,7 @@
         <v>181</v>
       </c>
       <c r="M85" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N85" s="333">
         <v>43900</v>
@@ -18741,7 +18732,7 @@
         <v>181</v>
       </c>
       <c r="M86" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N86" s="333">
         <v>43900</v>
@@ -18759,17 +18750,17 @@
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="644" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E87" s="566"/>
       <c r="F87" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G87" s="413" t="s">
+        <v>464</v>
+      </c>
+      <c r="H87" s="303" t="s">
         <v>465</v>
-      </c>
-      <c r="H87" s="303" t="s">
-        <v>466</v>
       </c>
       <c r="I87" s="303" t="s">
         <v>343</v>
@@ -18790,17 +18781,17 @@
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="644" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E88" s="566"/>
       <c r="F88" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G88" s="413" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H88" s="303" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I88" s="303" t="s">
         <v>343</v>
@@ -18820,18 +18811,18 @@
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="853" t="s">
-        <v>468</v>
+      <c r="D89" s="851" t="s">
+        <v>467</v>
       </c>
       <c r="E89" s="566"/>
       <c r="F89" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G89" s="413" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H89" s="303" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I89" s="303" t="s">
         <v>343</v>
@@ -18852,17 +18843,17 @@
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="644" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E90" s="566"/>
       <c r="F90" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G90" s="413" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H90" s="303" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I90" s="303" t="s">
         <v>343</v>
@@ -18883,17 +18874,17 @@
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="644" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E91" s="566"/>
       <c r="F91" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G91" s="413" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H91" s="303" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I91" s="303" t="s">
         <v>343</v>
@@ -19059,23 +19050,23 @@
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="644" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E97" s="566"/>
       <c r="F97" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G97" s="413" t="s">
-        <v>472</v>
-      </c>
-      <c r="H97" s="854" t="s">
-        <v>466</v>
-      </c>
-      <c r="I97" s="854" t="s">
+        <v>471</v>
+      </c>
+      <c r="H97" s="852" t="s">
+        <v>465</v>
+      </c>
+      <c r="I97" s="852" t="s">
         <v>343</v>
       </c>
       <c r="J97" s="218" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K97" s="69"/>
       <c r="L97" s="8"/>
@@ -19179,17 +19170,17 @@
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="310" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E101" s="311"/>
       <c r="F101" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G101" s="413" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H101" s="147" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I101" s="147" t="s">
         <v>343</v>
@@ -19210,19 +19201,19 @@
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
       <c r="D102" s="647" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E102" s="648"/>
       <c r="F102" s="412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G102" s="413" t="s">
-        <v>476</v>
-      </c>
-      <c r="H102" s="855" t="s">
-        <v>466</v>
-      </c>
-      <c r="I102" s="855" t="s">
+        <v>475</v>
+      </c>
+      <c r="H102" s="853" t="s">
+        <v>465</v>
+      </c>
+      <c r="I102" s="853" t="s">
         <v>238</v>
       </c>
       <c r="J102" s="96"/>
@@ -19467,7 +19458,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="319" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J6" s="319" t="s">
         <v>188</v>
@@ -19481,7 +19472,7 @@
         <v>396</v>
       </c>
       <c r="J7" s="319" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K7" s="319" t="s">
         <v>190</v>
@@ -19525,11 +19516,11 @@
       <c r="E10" s="828" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="856" t="s">
+      <c r="F10" s="854" t="s">
+        <v>448</v>
+      </c>
+      <c r="G10" s="855" t="s">
         <v>449</v>
-      </c>
-      <c r="G10" s="857" t="s">
-        <v>450</v>
       </c>
       <c r="H10" s="828" t="s">
         <v>196</v>
@@ -19570,31 +19561,31 @@
         <v>408</v>
       </c>
       <c r="C11" s="641" t="s">
+        <v>485</v>
+      </c>
+      <c r="D11" s="595" t="s">
         <v>409</v>
-      </c>
-      <c r="D11" s="595" t="s">
-        <v>410</v>
       </c>
       <c r="E11" s="608"/>
       <c r="F11" s="667"/>
       <c r="G11" s="667"/>
       <c r="H11" s="641" t="s">
+        <v>410</v>
+      </c>
+      <c r="I11" s="641" t="s">
         <v>411</v>
       </c>
-      <c r="I11" s="641" t="s">
-        <v>412</v>
-      </c>
       <c r="J11" s="309" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K11" s="309" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L11" s="469" t="s">
         <v>181</v>
       </c>
       <c r="M11" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N11" s="333">
         <v>43900</v>
@@ -19612,26 +19603,26 @@
       <c r="B12" s="670"/>
       <c r="C12" s="670"/>
       <c r="D12" s="656" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E12" s="657"/>
       <c r="F12" s="667"/>
       <c r="G12" s="667"/>
       <c r="H12" s="641" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I12" s="641" t="s">
+        <v>413</v>
+      </c>
+      <c r="J12" s="309" t="s">
+        <v>446</v>
+      </c>
+      <c r="K12" s="553" t="s">
         <v>414</v>
-      </c>
-      <c r="J12" s="309" t="s">
-        <v>447</v>
-      </c>
-      <c r="K12" s="553" t="s">
-        <v>415</v>
       </c>
       <c r="L12" s="651"/>
       <c r="M12" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N12" s="333">
         <v>43900</v>
@@ -19649,26 +19640,26 @@
       <c r="B13" s="670"/>
       <c r="C13" s="670"/>
       <c r="D13" s="665" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E13" s="673"/>
       <c r="F13" s="667"/>
       <c r="G13" s="667"/>
       <c r="H13" s="641" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I13" s="641" t="s">
+        <v>413</v>
+      </c>
+      <c r="J13" s="674" t="s">
+        <v>439</v>
+      </c>
+      <c r="K13" s="553" t="s">
         <v>414</v>
-      </c>
-      <c r="J13" s="674" t="s">
-        <v>440</v>
-      </c>
-      <c r="K13" s="553" t="s">
-        <v>415</v>
       </c>
       <c r="L13" s="652"/>
       <c r="M13" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N13" s="333">
         <v>43900</v>
@@ -19686,19 +19677,19 @@
       <c r="B14" s="677"/>
       <c r="C14" s="677"/>
       <c r="D14" s="658" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E14" s="659"/>
       <c r="F14" s="678"/>
       <c r="G14" s="678"/>
       <c r="H14" s="631" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I14" s="631" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J14" s="551" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K14" s="551"/>
       <c r="L14" s="653"/>
@@ -19715,24 +19706,24 @@
       <c r="B15" s="670"/>
       <c r="C15" s="670"/>
       <c r="D15" s="656" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E15" s="657"/>
       <c r="F15" s="678"/>
       <c r="G15" s="678"/>
       <c r="H15" s="641" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I15" s="641" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J15" s="660" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K15" s="553"/>
       <c r="L15" s="651"/>
       <c r="M15" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N15" s="333">
         <v>43900</v>
@@ -19750,7 +19741,7 @@
       <c r="B16" s="670"/>
       <c r="C16" s="670"/>
       <c r="D16" s="661" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E16" s="662" t="s">
         <v>208</v>
@@ -19758,20 +19749,20 @@
       <c r="F16" s="667"/>
       <c r="G16" s="667"/>
       <c r="H16" s="641" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I16" s="641" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J16" s="553" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K16" s="553" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L16" s="651"/>
       <c r="M16" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N16" s="333">
         <v>43900</v>
@@ -19790,18 +19781,18 @@
       <c r="C17" s="677"/>
       <c r="D17" s="677"/>
       <c r="E17" s="557" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F17" s="678"/>
       <c r="G17" s="678"/>
       <c r="H17" s="631" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I17" s="631" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J17" s="551" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K17" s="551"/>
       <c r="L17" s="653"/>
@@ -19819,18 +19810,18 @@
       <c r="C18" s="677"/>
       <c r="D18" s="677"/>
       <c r="E18" s="663" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F18" s="678"/>
       <c r="G18" s="678"/>
       <c r="H18" s="631" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I18" s="631" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J18" s="551" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K18" s="551"/>
       <c r="L18" s="653"/>
@@ -19853,13 +19844,13 @@
       <c r="F19" s="678"/>
       <c r="G19" s="678"/>
       <c r="H19" s="631" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I19" s="631" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J19" s="551" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K19" s="551"/>
       <c r="L19" s="653"/>
@@ -19876,21 +19867,21 @@
       <c r="B20" s="677"/>
       <c r="C20" s="677"/>
       <c r="D20" s="663" t="s">
+        <v>425</v>
+      </c>
+      <c r="E20" s="557" t="s">
         <v>426</v>
-      </c>
-      <c r="E20" s="557" t="s">
-        <v>427</v>
       </c>
       <c r="F20" s="678"/>
       <c r="G20" s="678"/>
       <c r="H20" s="631" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I20" s="631" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J20" s="551" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K20" s="551"/>
       <c r="L20" s="653"/>
@@ -19907,21 +19898,21 @@
       <c r="B21" s="677"/>
       <c r="C21" s="677"/>
       <c r="D21" s="737" t="s">
+        <v>428</v>
+      </c>
+      <c r="E21" s="557" t="s">
         <v>429</v>
-      </c>
-      <c r="E21" s="557" t="s">
-        <v>430</v>
       </c>
       <c r="F21" s="667"/>
       <c r="G21" s="667"/>
       <c r="H21" s="631" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I21" s="631" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J21" s="551" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K21" s="551"/>
       <c r="L21" s="653"/>
@@ -19937,20 +19928,20 @@
       </c>
       <c r="B22" s="677"/>
       <c r="C22" s="677"/>
-      <c r="D22" s="842" t="s">
-        <v>432</v>
-      </c>
-      <c r="E22" s="843"/>
+      <c r="D22" s="868" t="s">
+        <v>431</v>
+      </c>
+      <c r="E22" s="869"/>
       <c r="F22" s="678"/>
       <c r="G22" s="678"/>
       <c r="H22" s="631" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I22" s="631" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J22" s="551" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K22" s="551"/>
       <c r="L22" s="653"/>
@@ -19969,28 +19960,28 @@
         <v>207</v>
       </c>
       <c r="D23" s="656" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E23" s="657"/>
       <c r="F23" s="667"/>
       <c r="G23" s="667"/>
       <c r="H23" s="641" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I23" s="641" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J23" s="553" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K23" s="553" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L23" s="469" t="s">
         <v>181</v>
       </c>
       <c r="M23" s="332" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N23" s="333">
         <v>43900</v>
@@ -20008,19 +19999,19 @@
       <c r="B24" s="664"/>
       <c r="C24" s="664"/>
       <c r="D24" s="658" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E24" s="659"/>
       <c r="F24" s="667"/>
       <c r="G24" s="667"/>
       <c r="H24" s="631" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I24" s="631" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J24" s="551" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K24" s="551"/>
       <c r="L24" s="653"/>
@@ -20035,24 +20026,24 @@
         <v>175</v>
       </c>
       <c r="B25" s="303" t="s">
+        <v>478</v>
+      </c>
+      <c r="C25" s="858" t="s">
         <v>479</v>
       </c>
-      <c r="C25" s="860" t="s">
+      <c r="D25" s="859"/>
+      <c r="E25" s="860"/>
+      <c r="F25" s="861" t="s">
+        <v>452</v>
+      </c>
+      <c r="G25" s="862" t="s">
         <v>480</v>
       </c>
-      <c r="D25" s="861"/>
-      <c r="E25" s="862"/>
-      <c r="F25" s="863" t="s">
-        <v>453</v>
-      </c>
-      <c r="G25" s="864" t="s">
+      <c r="H25" s="845" t="s">
         <v>481</v>
       </c>
-      <c r="H25" s="847" t="s">
+      <c r="I25" s="845" t="s">
         <v>482</v>
-      </c>
-      <c r="I25" s="847" t="s">
-        <v>483</v>
       </c>
       <c r="J25" s="95"/>
       <c r="K25" s="95"/>
@@ -20067,22 +20058,22 @@
       <c r="A26" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="865"/>
-      <c r="C26" s="866" t="s">
+      <c r="B26" s="863"/>
+      <c r="C26" s="864" t="s">
+        <v>483</v>
+      </c>
+      <c r="D26" s="865"/>
+      <c r="E26" s="866"/>
+      <c r="F26" s="861" t="s">
+        <v>452</v>
+      </c>
+      <c r="G26" s="861" t="s">
         <v>484</v>
       </c>
-      <c r="D26" s="867"/>
-      <c r="E26" s="868"/>
-      <c r="F26" s="863" t="s">
-        <v>453</v>
-      </c>
-      <c r="G26" s="863" t="s">
-        <v>485</v>
-      </c>
-      <c r="H26" s="869" t="s">
+      <c r="H26" s="867" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="869" t="s">
+      <c r="I26" s="867" t="s">
         <v>11</v>
       </c>
       <c r="J26" s="96"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10203_Project_Update.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10203_Project_Update.xlsx
@@ -1,33 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE76814D-F0D8-44CA-B9ED-048C76AC156E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E413BEF-D0B5-4D8F-B007-C382D864DE9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="720" windowWidth="24000" windowHeight="10830" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1.1 Confirmation of update" sheetId="23" r:id="rId1"/>
-    <sheet name="1.2 Confirmation of update" sheetId="24" r:id="rId2"/>
-    <sheet name="1.3 Confirmation of Completion" sheetId="25" r:id="rId3"/>
-    <sheet name="1.4. Subfunction unit" sheetId="27" r:id="rId4"/>
+    <sheet name="Cover" sheetId="28" r:id="rId1"/>
+    <sheet name="Revision history" sheetId="29" r:id="rId2"/>
+    <sheet name="1.1 Confirmation of update" sheetId="23" r:id="rId3"/>
+    <sheet name="1.2 Confirmation of update" sheetId="24" r:id="rId4"/>
+    <sheet name="1.3 Confirmation of Completion" sheetId="25" r:id="rId5"/>
+    <sheet name="1.4. Subfunction unit" sheetId="27" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1.1 Confirmation of update'!$A$10:$Q$109</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.2 Confirmation of update'!$A$10:$Q$102</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.3 Confirmation of Completion'!$A$10:$Q$102</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4. Subfunction unit'!$A$10:$Q$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1.1 Confirmation of update'!$A$1:$Q$110</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.2 Confirmation of update'!$A$1:$Q$103</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'1.3 Confirmation of Completion'!$A$1:$Q$103</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1.4. Subfunction unit'!$A$1:$Q$28</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'1.1 Confirmation of update'!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'1.2 Confirmation of update'!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'1.3 Confirmation of Completion'!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.4. Subfunction unit'!$1:$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1 Confirmation of update'!$A$10:$Q$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.2 Confirmation of update'!$A$10:$Q$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.3 Confirmation of Completion'!$A$10:$Q$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'1.4. Subfunction unit'!$A$10:$Q$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'1.1 Confirmation of update'!$A$1:$Q$110</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1.2 Confirmation of update'!$A$1:$Q$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'1.3 Confirmation of Completion'!$A$1:$Q$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'1.4. Subfunction unit'!$A$1:$Q$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$S$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Revision history'!$A$1:$AI$39</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'1.1 Confirmation of update'!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.2 Confirmation of update'!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'1.3 Confirmation of Completion'!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'1.4. Subfunction unit'!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Revision history'!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -183,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="509">
   <si>
     <t>1-1-1</t>
   </si>
@@ -1977,15 +1992,153 @@
     <t>Screen transition pattern</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Version 1.0</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>Project name</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>Sample Project</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>Deliverable name</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>Subfunction Unit Test Specification (screen)</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>Prepared by</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>System name</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>Sample System</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>Changes</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>Sub-system name</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>Project Management System</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Version No.</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>Revision date</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>Classification</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>Changes(item numbers, etc.)</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>Revision details</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>Person in charge</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>Version 1.0</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>New</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>(New creation)</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <r>
+      <t>Revision history</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="VL Pゴシック"/>
@@ -2063,8 +2216,80 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2089,8 +2314,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="322">
+  <borders count="332">
     <border>
       <left/>
       <right/>
@@ -6455,16 +6686,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="870">
+  <cellXfs count="962">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
@@ -9055,13 +9402,271 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="314" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="277" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="315" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="314" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="277" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="315" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="322" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="323" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="324" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="322" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="323" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="324" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="189" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="189" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="173" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="325" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="190" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="173" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="325" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="190" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="326" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="322" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="324" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="322" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="323" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="324" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="330" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="331" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="327" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="329" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="328" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="327" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="329" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="328" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="327" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="329" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="328" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="314" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="277" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="315" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="314" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="277" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="315" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="314" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="277" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="315" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="191" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="327" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="329" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="328" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="327" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="329" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="328" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="314" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="315" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="314" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="277" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="315" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="277" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="314" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="277" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="315" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="314" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="277" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="315" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="277" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="パーセント 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_画面標準" xfId="6" xr:uid="{9155CE41-7033-442D-BB9D-B4C2C230D612}"/>
+    <cellStyle name="標準_画面標準定義" xfId="7" xr:uid="{1F365478-DF09-4580-A3A1-085C6E320A7A}"/>
     <cellStyle name="標準_方式設計書(14.開発標準：D03サンプル_自動テスト仕様書：ＤＢアクセス)_V1.00" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9143,6 +9748,508 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0DC0C66-ED93-418A-BE5E-2972C6738D14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7953375" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
+          <a:chOff x="591" y="61"/>
+          <a:chExt cx="147" cy="62"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD42512F-AA45-4F80-95F7-D2BC01B03CD1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="591" y="61"/>
+            <a:ext cx="147" cy="28"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:lnSpc>
+                <a:spcPts val="1000"/>
+              </a:lnSpc>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>CONFIDENTIAL</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:lnSpc>
+                <a:spcPts val="1100"/>
+              </a:lnSpc>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A0EEBF-AE0D-4731-8ED0-B365E8E11953}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="591" y="89"/>
+            <a:ext cx="147" cy="34"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:lnSpc>
+                <a:spcPts val="800"/>
+              </a:lnSpc>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>PROJECT PERSONNEL ONLY</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:lnSpc>
+                <a:spcPts val="1100"/>
+              </a:lnSpc>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C4E453-FBE9-406B-B7A6-B63CFF9846A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1590675" y="1590675"/>
+          <a:ext cx="6562725" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="107763" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="808080"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="90000" tIns="43200" rIns="90000" bIns="43200" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sample Project</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Subfunction Unit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Test Specification (screen)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="2200"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Project Management System/Project Management/Project Update</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9465,13 +10572,2038 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA83E82-8BAC-4408-9C53-5EAC9BAC60F9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K513"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="6.625" style="870"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+      <c r="B1" s="871"/>
+      <c r="C1" s="872"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A2" s="873"/>
+    </row>
+    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1">
+      <c r="F22" s="874"/>
+      <c r="H22" s="874"/>
+    </row>
+    <row r="23" spans="6:11" ht="17.25" customHeight="1">
+      <c r="F23" s="874"/>
+      <c r="G23" s="874"/>
+      <c r="H23" s="874"/>
+      <c r="J23" s="875" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" ht="13.5" customHeight="1">
+      <c r="F24" s="874"/>
+      <c r="G24" s="874"/>
+      <c r="H24" s="874"/>
+    </row>
+    <row r="25" spans="6:11" ht="18" customHeight="1">
+      <c r="F25" s="874"/>
+      <c r="G25" s="874"/>
+      <c r="H25" s="874"/>
+      <c r="I25" s="880">
+        <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
+        <v>43896</v>
+      </c>
+      <c r="J25" s="880"/>
+      <c r="K25" s="880"/>
+    </row>
+    <row r="26" spans="6:11" ht="13.5" customHeight="1">
+      <c r="F26" s="874"/>
+      <c r="G26" s="874"/>
+      <c r="H26" s="874"/>
+    </row>
+    <row r="27" spans="6:11" ht="13.5" customHeight="1">
+      <c r="F27" s="874"/>
+      <c r="G27" s="874"/>
+      <c r="H27" s="874"/>
+    </row>
+    <row r="28" spans="6:11" ht="13.5" customHeight="1">
+      <c r="F28" s="876"/>
+      <c r="G28" s="874"/>
+      <c r="H28" s="874"/>
+    </row>
+    <row r="29" spans="6:11" ht="15" customHeight="1">
+      <c r="F29" s="874"/>
+      <c r="H29" s="874"/>
+    </row>
+    <row r="30" spans="6:11" ht="13.5" customHeight="1">
+      <c r="F30" s="874"/>
+      <c r="G30" s="877"/>
+      <c r="H30" s="874"/>
+    </row>
+    <row r="31" spans="6:11" ht="18.75" customHeight="1">
+      <c r="F31" s="874"/>
+      <c r="G31" s="877"/>
+      <c r="H31" s="874"/>
+    </row>
+    <row r="32" spans="6:11" ht="18.75">
+      <c r="F32" s="874"/>
+      <c r="G32" s="877"/>
+      <c r="H32" s="874"/>
+      <c r="J32" s="878"/>
+    </row>
+    <row r="33" spans="6:10" ht="18.75">
+      <c r="F33" s="874"/>
+      <c r="H33" s="874"/>
+      <c r="J33" s="879"/>
+    </row>
+    <row r="34" spans="6:10" ht="18.75">
+      <c r="F34" s="874"/>
+      <c r="H34" s="874"/>
+      <c r="J34" s="878"/>
+    </row>
+    <row r="35" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="36" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="37" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="38" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="39" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="41" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="42" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="43" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="44" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="45" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="46" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="47" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="48" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="513" ht="13.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I25:K25"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5FBE5C-DA9D-49D9-A307-C519248AC5B2}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AN34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="16384" width="3.625" style="960"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" s="930" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="881" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1" s="882"/>
+      <c r="C1" s="882"/>
+      <c r="D1" s="883"/>
+      <c r="E1" s="884" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1" s="885"/>
+      <c r="G1" s="885"/>
+      <c r="H1" s="885"/>
+      <c r="I1" s="885"/>
+      <c r="J1" s="885"/>
+      <c r="K1" s="885"/>
+      <c r="L1" s="885"/>
+      <c r="M1" s="885"/>
+      <c r="N1" s="886"/>
+      <c r="O1" s="887" t="s">
+        <v>490</v>
+      </c>
+      <c r="P1" s="888"/>
+      <c r="Q1" s="888"/>
+      <c r="R1" s="889"/>
+      <c r="S1" s="890" t="s">
+        <v>491</v>
+      </c>
+      <c r="T1" s="891"/>
+      <c r="U1" s="891"/>
+      <c r="V1" s="891"/>
+      <c r="W1" s="891"/>
+      <c r="X1" s="891"/>
+      <c r="Y1" s="891"/>
+      <c r="Z1" s="892"/>
+      <c r="AA1" s="881" t="s">
+        <v>492</v>
+      </c>
+      <c r="AB1" s="883"/>
+      <c r="AC1" s="922" t="str">
+        <f>IF(AF8="","",AF8)</f>
+        <v>TIS</v>
+      </c>
+      <c r="AD1" s="923"/>
+      <c r="AE1" s="923"/>
+      <c r="AF1" s="924"/>
+      <c r="AG1" s="925">
+        <f>IF(D8="","",D8)</f>
+        <v>43896</v>
+      </c>
+      <c r="AH1" s="926"/>
+      <c r="AI1" s="927"/>
+      <c r="AJ1" s="928"/>
+      <c r="AK1" s="928"/>
+      <c r="AL1" s="928"/>
+      <c r="AM1" s="928"/>
+      <c r="AN1" s="929"/>
+    </row>
+    <row r="2" spans="1:40" s="930" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="881" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2" s="882"/>
+      <c r="C2" s="882"/>
+      <c r="D2" s="883"/>
+      <c r="E2" s="884" t="s">
+        <v>494</v>
+      </c>
+      <c r="F2" s="885"/>
+      <c r="G2" s="885"/>
+      <c r="H2" s="885"/>
+      <c r="I2" s="885"/>
+      <c r="J2" s="885"/>
+      <c r="K2" s="885"/>
+      <c r="L2" s="885"/>
+      <c r="M2" s="885"/>
+      <c r="N2" s="886"/>
+      <c r="O2" s="893"/>
+      <c r="P2" s="894"/>
+      <c r="Q2" s="894"/>
+      <c r="R2" s="895"/>
+      <c r="S2" s="896"/>
+      <c r="T2" s="897"/>
+      <c r="U2" s="897"/>
+      <c r="V2" s="897"/>
+      <c r="W2" s="897"/>
+      <c r="X2" s="897"/>
+      <c r="Y2" s="897"/>
+      <c r="Z2" s="898"/>
+      <c r="AA2" s="881" t="s">
+        <v>495</v>
+      </c>
+      <c r="AB2" s="883"/>
+      <c r="AC2" s="931" t="str">
+        <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
+        <v/>
+      </c>
+      <c r="AD2" s="932"/>
+      <c r="AE2" s="932"/>
+      <c r="AF2" s="933"/>
+      <c r="AG2" s="925" t="str">
+        <f>IF(D9="","",MAX(D9:F33))</f>
+        <v/>
+      </c>
+      <c r="AH2" s="926"/>
+      <c r="AI2" s="927"/>
+      <c r="AJ2" s="928"/>
+      <c r="AK2" s="928"/>
+      <c r="AL2" s="928"/>
+      <c r="AM2" s="928"/>
+      <c r="AN2" s="928"/>
+    </row>
+    <row r="3" spans="1:40" s="930" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="881" t="s">
+        <v>496</v>
+      </c>
+      <c r="B3" s="882"/>
+      <c r="C3" s="882"/>
+      <c r="D3" s="883"/>
+      <c r="E3" s="884" t="s">
+        <v>497</v>
+      </c>
+      <c r="F3" s="885"/>
+      <c r="G3" s="885"/>
+      <c r="H3" s="885"/>
+      <c r="I3" s="885"/>
+      <c r="J3" s="885"/>
+      <c r="K3" s="885"/>
+      <c r="L3" s="885"/>
+      <c r="M3" s="885"/>
+      <c r="N3" s="886"/>
+      <c r="O3" s="899"/>
+      <c r="P3" s="900"/>
+      <c r="Q3" s="900"/>
+      <c r="R3" s="901"/>
+      <c r="S3" s="902"/>
+      <c r="T3" s="903"/>
+      <c r="U3" s="903"/>
+      <c r="V3" s="903"/>
+      <c r="W3" s="903"/>
+      <c r="X3" s="903"/>
+      <c r="Y3" s="903"/>
+      <c r="Z3" s="904"/>
+      <c r="AA3" s="881"/>
+      <c r="AB3" s="883"/>
+      <c r="AC3" s="922"/>
+      <c r="AD3" s="923"/>
+      <c r="AE3" s="923"/>
+      <c r="AF3" s="924"/>
+      <c r="AG3" s="925"/>
+      <c r="AH3" s="926"/>
+      <c r="AI3" s="927"/>
+      <c r="AJ3" s="928"/>
+      <c r="AK3" s="928"/>
+      <c r="AL3" s="928"/>
+      <c r="AM3" s="928"/>
+      <c r="AN3" s="928"/>
+    </row>
+    <row r="5" spans="1:40" s="930" customFormat="1" ht="22.5" customHeight="1">
+      <c r="N5" s="934" t="s">
+        <v>508</v>
+      </c>
+      <c r="AA5" s="935"/>
+      <c r="AB5" s="935"/>
+      <c r="AC5" s="936"/>
+      <c r="AD5" s="937"/>
+      <c r="AE5" s="937"/>
+      <c r="AF5" s="937"/>
+      <c r="AG5" s="935"/>
+      <c r="AH5" s="935"/>
+      <c r="AI5" s="935"/>
+    </row>
+    <row r="6" spans="1:40" s="930" customFormat="1" ht="15" customHeight="1">
+      <c r="N6" s="934"/>
+      <c r="AA6" s="935"/>
+      <c r="AB6" s="935"/>
+      <c r="AC6" s="936"/>
+      <c r="AD6" s="937"/>
+      <c r="AE6" s="937"/>
+      <c r="AF6" s="937"/>
+      <c r="AG6" s="935"/>
+      <c r="AH6" s="935"/>
+      <c r="AI6" s="935"/>
+    </row>
+    <row r="7" spans="1:40" s="938" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A7" s="905" t="s">
+        <v>498</v>
+      </c>
+      <c r="B7" s="906" t="s">
+        <v>499</v>
+      </c>
+      <c r="C7" s="907"/>
+      <c r="D7" s="908" t="s">
+        <v>500</v>
+      </c>
+      <c r="E7" s="909"/>
+      <c r="F7" s="910"/>
+      <c r="G7" s="908" t="s">
+        <v>501</v>
+      </c>
+      <c r="H7" s="909"/>
+      <c r="I7" s="910"/>
+      <c r="J7" s="908" t="s">
+        <v>502</v>
+      </c>
+      <c r="K7" s="909"/>
+      <c r="L7" s="909"/>
+      <c r="M7" s="909"/>
+      <c r="N7" s="909"/>
+      <c r="O7" s="909"/>
+      <c r="P7" s="910"/>
+      <c r="Q7" s="908" t="s">
+        <v>503</v>
+      </c>
+      <c r="R7" s="909"/>
+      <c r="S7" s="909"/>
+      <c r="T7" s="909"/>
+      <c r="U7" s="909"/>
+      <c r="V7" s="909"/>
+      <c r="W7" s="909"/>
+      <c r="X7" s="909"/>
+      <c r="Y7" s="909"/>
+      <c r="Z7" s="909"/>
+      <c r="AA7" s="909"/>
+      <c r="AB7" s="909"/>
+      <c r="AC7" s="909"/>
+      <c r="AD7" s="909"/>
+      <c r="AE7" s="910"/>
+      <c r="AF7" s="908" t="s">
+        <v>504</v>
+      </c>
+      <c r="AG7" s="909"/>
+      <c r="AH7" s="909"/>
+      <c r="AI7" s="910"/>
+    </row>
+    <row r="8" spans="1:40" s="938" customFormat="1" ht="24.75" customHeight="1" thickTop="1">
+      <c r="A8" s="939">
+        <v>1</v>
+      </c>
+      <c r="B8" s="911" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" s="912"/>
+      <c r="D8" s="940">
+        <v>43896</v>
+      </c>
+      <c r="E8" s="941"/>
+      <c r="F8" s="942"/>
+      <c r="G8" s="913" t="s">
+        <v>506</v>
+      </c>
+      <c r="H8" s="914"/>
+      <c r="I8" s="915"/>
+      <c r="J8" s="916" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="917"/>
+      <c r="L8" s="917"/>
+      <c r="M8" s="917"/>
+      <c r="N8" s="917"/>
+      <c r="O8" s="917"/>
+      <c r="P8" s="918"/>
+      <c r="Q8" s="919" t="s">
+        <v>507</v>
+      </c>
+      <c r="R8" s="920"/>
+      <c r="S8" s="920"/>
+      <c r="T8" s="920"/>
+      <c r="U8" s="920"/>
+      <c r="V8" s="920"/>
+      <c r="W8" s="920"/>
+      <c r="X8" s="920"/>
+      <c r="Y8" s="920"/>
+      <c r="Z8" s="920"/>
+      <c r="AA8" s="920"/>
+      <c r="AB8" s="920"/>
+      <c r="AC8" s="920"/>
+      <c r="AD8" s="920"/>
+      <c r="AE8" s="921"/>
+      <c r="AF8" s="943" t="s">
+        <v>486</v>
+      </c>
+      <c r="AG8" s="944"/>
+      <c r="AH8" s="944"/>
+      <c r="AI8" s="945"/>
+    </row>
+    <row r="9" spans="1:40" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="946"/>
+      <c r="B9" s="947"/>
+      <c r="C9" s="948"/>
+      <c r="D9" s="949"/>
+      <c r="E9" s="950"/>
+      <c r="F9" s="951"/>
+      <c r="G9" s="949"/>
+      <c r="H9" s="952"/>
+      <c r="I9" s="948"/>
+      <c r="J9" s="953"/>
+      <c r="K9" s="954"/>
+      <c r="L9" s="954"/>
+      <c r="M9" s="954"/>
+      <c r="N9" s="954"/>
+      <c r="O9" s="954"/>
+      <c r="P9" s="955"/>
+      <c r="Q9" s="956"/>
+      <c r="R9" s="957"/>
+      <c r="S9" s="957"/>
+      <c r="T9" s="957"/>
+      <c r="U9" s="957"/>
+      <c r="V9" s="957"/>
+      <c r="W9" s="957"/>
+      <c r="X9" s="957"/>
+      <c r="Y9" s="957"/>
+      <c r="Z9" s="957"/>
+      <c r="AA9" s="957"/>
+      <c r="AB9" s="957"/>
+      <c r="AC9" s="957"/>
+      <c r="AD9" s="957"/>
+      <c r="AE9" s="958"/>
+      <c r="AF9" s="953"/>
+      <c r="AG9" s="954"/>
+      <c r="AH9" s="954"/>
+      <c r="AI9" s="955"/>
+    </row>
+    <row r="10" spans="1:40" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="946"/>
+      <c r="B10" s="947"/>
+      <c r="C10" s="948"/>
+      <c r="D10" s="949"/>
+      <c r="E10" s="950"/>
+      <c r="F10" s="951"/>
+      <c r="G10" s="947"/>
+      <c r="H10" s="952"/>
+      <c r="I10" s="948"/>
+      <c r="J10" s="953"/>
+      <c r="K10" s="954"/>
+      <c r="L10" s="954"/>
+      <c r="M10" s="954"/>
+      <c r="N10" s="954"/>
+      <c r="O10" s="954"/>
+      <c r="P10" s="955"/>
+      <c r="Q10" s="956"/>
+      <c r="R10" s="957"/>
+      <c r="S10" s="957"/>
+      <c r="T10" s="957"/>
+      <c r="U10" s="957"/>
+      <c r="V10" s="957"/>
+      <c r="W10" s="957"/>
+      <c r="X10" s="957"/>
+      <c r="Y10" s="957"/>
+      <c r="Z10" s="957"/>
+      <c r="AA10" s="957"/>
+      <c r="AB10" s="957"/>
+      <c r="AC10" s="957"/>
+      <c r="AD10" s="957"/>
+      <c r="AE10" s="958"/>
+      <c r="AF10" s="953"/>
+      <c r="AG10" s="954"/>
+      <c r="AH10" s="954"/>
+      <c r="AI10" s="955"/>
+    </row>
+    <row r="11" spans="1:40" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="946"/>
+      <c r="B11" s="947"/>
+      <c r="C11" s="948"/>
+      <c r="D11" s="949"/>
+      <c r="E11" s="950"/>
+      <c r="F11" s="951"/>
+      <c r="G11" s="947"/>
+      <c r="H11" s="952"/>
+      <c r="I11" s="948"/>
+      <c r="J11" s="953"/>
+      <c r="K11" s="954"/>
+      <c r="L11" s="954"/>
+      <c r="M11" s="954"/>
+      <c r="N11" s="954"/>
+      <c r="O11" s="954"/>
+      <c r="P11" s="955"/>
+      <c r="Q11" s="956"/>
+      <c r="R11" s="957"/>
+      <c r="S11" s="957"/>
+      <c r="T11" s="957"/>
+      <c r="U11" s="957"/>
+      <c r="V11" s="957"/>
+      <c r="W11" s="957"/>
+      <c r="X11" s="957"/>
+      <c r="Y11" s="957"/>
+      <c r="Z11" s="957"/>
+      <c r="AA11" s="957"/>
+      <c r="AB11" s="957"/>
+      <c r="AC11" s="957"/>
+      <c r="AD11" s="957"/>
+      <c r="AE11" s="958"/>
+      <c r="AF11" s="953"/>
+      <c r="AG11" s="954"/>
+      <c r="AH11" s="954"/>
+      <c r="AI11" s="955"/>
+    </row>
+    <row r="12" spans="1:40" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="946"/>
+      <c r="B12" s="947"/>
+      <c r="C12" s="948"/>
+      <c r="D12" s="949"/>
+      <c r="E12" s="950"/>
+      <c r="F12" s="951"/>
+      <c r="G12" s="947"/>
+      <c r="H12" s="952"/>
+      <c r="I12" s="948"/>
+      <c r="J12" s="953"/>
+      <c r="K12" s="954"/>
+      <c r="L12" s="954"/>
+      <c r="M12" s="954"/>
+      <c r="N12" s="954"/>
+      <c r="O12" s="954"/>
+      <c r="P12" s="955"/>
+      <c r="Q12" s="956"/>
+      <c r="R12" s="957"/>
+      <c r="S12" s="957"/>
+      <c r="T12" s="957"/>
+      <c r="U12" s="957"/>
+      <c r="V12" s="957"/>
+      <c r="W12" s="957"/>
+      <c r="X12" s="957"/>
+      <c r="Y12" s="957"/>
+      <c r="Z12" s="957"/>
+      <c r="AA12" s="957"/>
+      <c r="AB12" s="957"/>
+      <c r="AC12" s="957"/>
+      <c r="AD12" s="957"/>
+      <c r="AE12" s="958"/>
+      <c r="AF12" s="953"/>
+      <c r="AG12" s="954"/>
+      <c r="AH12" s="954"/>
+      <c r="AI12" s="955"/>
+    </row>
+    <row r="13" spans="1:40" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="946"/>
+      <c r="B13" s="947"/>
+      <c r="C13" s="948"/>
+      <c r="D13" s="949"/>
+      <c r="E13" s="950"/>
+      <c r="F13" s="951"/>
+      <c r="G13" s="947"/>
+      <c r="H13" s="952"/>
+      <c r="I13" s="948"/>
+      <c r="J13" s="953"/>
+      <c r="K13" s="954"/>
+      <c r="L13" s="954"/>
+      <c r="M13" s="954"/>
+      <c r="N13" s="954"/>
+      <c r="O13" s="954"/>
+      <c r="P13" s="955"/>
+      <c r="Q13" s="956"/>
+      <c r="R13" s="957"/>
+      <c r="S13" s="957"/>
+      <c r="T13" s="957"/>
+      <c r="U13" s="957"/>
+      <c r="V13" s="957"/>
+      <c r="W13" s="957"/>
+      <c r="X13" s="957"/>
+      <c r="Y13" s="957"/>
+      <c r="Z13" s="957"/>
+      <c r="AA13" s="957"/>
+      <c r="AB13" s="957"/>
+      <c r="AC13" s="957"/>
+      <c r="AD13" s="957"/>
+      <c r="AE13" s="958"/>
+      <c r="AF13" s="953"/>
+      <c r="AG13" s="954"/>
+      <c r="AH13" s="954"/>
+      <c r="AI13" s="955"/>
+    </row>
+    <row r="14" spans="1:40" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="946"/>
+      <c r="B14" s="947"/>
+      <c r="C14" s="948"/>
+      <c r="D14" s="949"/>
+      <c r="E14" s="950"/>
+      <c r="F14" s="951"/>
+      <c r="G14" s="947"/>
+      <c r="H14" s="952"/>
+      <c r="I14" s="948"/>
+      <c r="J14" s="953"/>
+      <c r="K14" s="954"/>
+      <c r="L14" s="954"/>
+      <c r="M14" s="954"/>
+      <c r="N14" s="954"/>
+      <c r="O14" s="954"/>
+      <c r="P14" s="955"/>
+      <c r="Q14" s="956"/>
+      <c r="R14" s="957"/>
+      <c r="S14" s="957"/>
+      <c r="T14" s="957"/>
+      <c r="U14" s="957"/>
+      <c r="V14" s="957"/>
+      <c r="W14" s="957"/>
+      <c r="X14" s="957"/>
+      <c r="Y14" s="957"/>
+      <c r="Z14" s="957"/>
+      <c r="AA14" s="957"/>
+      <c r="AB14" s="957"/>
+      <c r="AC14" s="957"/>
+      <c r="AD14" s="957"/>
+      <c r="AE14" s="958"/>
+      <c r="AF14" s="953"/>
+      <c r="AG14" s="954"/>
+      <c r="AH14" s="954"/>
+      <c r="AI14" s="955"/>
+    </row>
+    <row r="15" spans="1:40" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="946"/>
+      <c r="B15" s="947"/>
+      <c r="C15" s="948"/>
+      <c r="D15" s="949"/>
+      <c r="E15" s="950"/>
+      <c r="F15" s="951"/>
+      <c r="G15" s="947"/>
+      <c r="H15" s="952"/>
+      <c r="I15" s="948"/>
+      <c r="J15" s="953"/>
+      <c r="K15" s="954"/>
+      <c r="L15" s="954"/>
+      <c r="M15" s="954"/>
+      <c r="N15" s="954"/>
+      <c r="O15" s="954"/>
+      <c r="P15" s="955"/>
+      <c r="Q15" s="956"/>
+      <c r="R15" s="957"/>
+      <c r="S15" s="957"/>
+      <c r="T15" s="957"/>
+      <c r="U15" s="957"/>
+      <c r="V15" s="957"/>
+      <c r="W15" s="957"/>
+      <c r="X15" s="957"/>
+      <c r="Y15" s="957"/>
+      <c r="Z15" s="957"/>
+      <c r="AA15" s="957"/>
+      <c r="AB15" s="957"/>
+      <c r="AC15" s="957"/>
+      <c r="AD15" s="957"/>
+      <c r="AE15" s="958"/>
+      <c r="AF15" s="953"/>
+      <c r="AG15" s="954"/>
+      <c r="AH15" s="954"/>
+      <c r="AI15" s="955"/>
+    </row>
+    <row r="16" spans="1:40" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="946"/>
+      <c r="B16" s="947"/>
+      <c r="C16" s="948"/>
+      <c r="D16" s="949"/>
+      <c r="E16" s="950"/>
+      <c r="F16" s="951"/>
+      <c r="G16" s="947"/>
+      <c r="H16" s="952"/>
+      <c r="I16" s="948"/>
+      <c r="J16" s="953"/>
+      <c r="K16" s="954"/>
+      <c r="L16" s="954"/>
+      <c r="M16" s="954"/>
+      <c r="N16" s="954"/>
+      <c r="O16" s="954"/>
+      <c r="P16" s="955"/>
+      <c r="Q16" s="956"/>
+      <c r="R16" s="957"/>
+      <c r="S16" s="957"/>
+      <c r="T16" s="957"/>
+      <c r="U16" s="957"/>
+      <c r="V16" s="957"/>
+      <c r="W16" s="957"/>
+      <c r="X16" s="957"/>
+      <c r="Y16" s="957"/>
+      <c r="Z16" s="957"/>
+      <c r="AA16" s="957"/>
+      <c r="AB16" s="957"/>
+      <c r="AC16" s="957"/>
+      <c r="AD16" s="957"/>
+      <c r="AE16" s="958"/>
+      <c r="AF16" s="953"/>
+      <c r="AG16" s="954"/>
+      <c r="AH16" s="954"/>
+      <c r="AI16" s="955"/>
+    </row>
+    <row r="17" spans="1:35" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="946"/>
+      <c r="B17" s="947"/>
+      <c r="C17" s="948"/>
+      <c r="D17" s="949"/>
+      <c r="E17" s="950"/>
+      <c r="F17" s="951"/>
+      <c r="G17" s="947"/>
+      <c r="H17" s="952"/>
+      <c r="I17" s="948"/>
+      <c r="J17" s="953"/>
+      <c r="K17" s="954"/>
+      <c r="L17" s="954"/>
+      <c r="M17" s="954"/>
+      <c r="N17" s="954"/>
+      <c r="O17" s="954"/>
+      <c r="P17" s="955"/>
+      <c r="Q17" s="956"/>
+      <c r="R17" s="957"/>
+      <c r="S17" s="957"/>
+      <c r="T17" s="957"/>
+      <c r="U17" s="957"/>
+      <c r="V17" s="957"/>
+      <c r="W17" s="957"/>
+      <c r="X17" s="957"/>
+      <c r="Y17" s="957"/>
+      <c r="Z17" s="957"/>
+      <c r="AA17" s="957"/>
+      <c r="AB17" s="957"/>
+      <c r="AC17" s="957"/>
+      <c r="AD17" s="957"/>
+      <c r="AE17" s="958"/>
+      <c r="AF17" s="953"/>
+      <c r="AG17" s="954"/>
+      <c r="AH17" s="954"/>
+      <c r="AI17" s="955"/>
+    </row>
+    <row r="18" spans="1:35" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="946"/>
+      <c r="B18" s="947"/>
+      <c r="C18" s="948"/>
+      <c r="D18" s="949"/>
+      <c r="E18" s="950"/>
+      <c r="F18" s="951"/>
+      <c r="G18" s="947"/>
+      <c r="H18" s="952"/>
+      <c r="I18" s="948"/>
+      <c r="J18" s="953"/>
+      <c r="K18" s="954"/>
+      <c r="L18" s="954"/>
+      <c r="M18" s="954"/>
+      <c r="N18" s="954"/>
+      <c r="O18" s="954"/>
+      <c r="P18" s="955"/>
+      <c r="Q18" s="956"/>
+      <c r="R18" s="957"/>
+      <c r="S18" s="957"/>
+      <c r="T18" s="957"/>
+      <c r="U18" s="957"/>
+      <c r="V18" s="957"/>
+      <c r="W18" s="957"/>
+      <c r="X18" s="957"/>
+      <c r="Y18" s="957"/>
+      <c r="Z18" s="957"/>
+      <c r="AA18" s="957"/>
+      <c r="AB18" s="957"/>
+      <c r="AC18" s="957"/>
+      <c r="AD18" s="957"/>
+      <c r="AE18" s="958"/>
+      <c r="AF18" s="953"/>
+      <c r="AG18" s="954"/>
+      <c r="AH18" s="954"/>
+      <c r="AI18" s="955"/>
+    </row>
+    <row r="19" spans="1:35" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="946"/>
+      <c r="B19" s="947"/>
+      <c r="C19" s="948"/>
+      <c r="D19" s="949"/>
+      <c r="E19" s="950"/>
+      <c r="F19" s="951"/>
+      <c r="G19" s="947"/>
+      <c r="H19" s="952"/>
+      <c r="I19" s="948"/>
+      <c r="J19" s="953"/>
+      <c r="K19" s="954"/>
+      <c r="L19" s="954"/>
+      <c r="M19" s="954"/>
+      <c r="N19" s="954"/>
+      <c r="O19" s="954"/>
+      <c r="P19" s="955"/>
+      <c r="Q19" s="956"/>
+      <c r="R19" s="957"/>
+      <c r="S19" s="957"/>
+      <c r="T19" s="957"/>
+      <c r="U19" s="957"/>
+      <c r="V19" s="957"/>
+      <c r="W19" s="957"/>
+      <c r="X19" s="957"/>
+      <c r="Y19" s="957"/>
+      <c r="Z19" s="957"/>
+      <c r="AA19" s="957"/>
+      <c r="AB19" s="957"/>
+      <c r="AC19" s="957"/>
+      <c r="AD19" s="957"/>
+      <c r="AE19" s="958"/>
+      <c r="AF19" s="953"/>
+      <c r="AG19" s="954"/>
+      <c r="AH19" s="954"/>
+      <c r="AI19" s="955"/>
+    </row>
+    <row r="20" spans="1:35" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="946"/>
+      <c r="B20" s="947"/>
+      <c r="C20" s="948"/>
+      <c r="D20" s="949"/>
+      <c r="E20" s="950"/>
+      <c r="F20" s="951"/>
+      <c r="G20" s="947"/>
+      <c r="H20" s="952"/>
+      <c r="I20" s="948"/>
+      <c r="J20" s="953"/>
+      <c r="K20" s="954"/>
+      <c r="L20" s="954"/>
+      <c r="M20" s="954"/>
+      <c r="N20" s="954"/>
+      <c r="O20" s="954"/>
+      <c r="P20" s="955"/>
+      <c r="Q20" s="956"/>
+      <c r="R20" s="957"/>
+      <c r="S20" s="957"/>
+      <c r="T20" s="957"/>
+      <c r="U20" s="957"/>
+      <c r="V20" s="957"/>
+      <c r="W20" s="957"/>
+      <c r="X20" s="957"/>
+      <c r="Y20" s="957"/>
+      <c r="Z20" s="957"/>
+      <c r="AA20" s="957"/>
+      <c r="AB20" s="957"/>
+      <c r="AC20" s="957"/>
+      <c r="AD20" s="957"/>
+      <c r="AE20" s="958"/>
+      <c r="AF20" s="953"/>
+      <c r="AG20" s="954"/>
+      <c r="AH20" s="954"/>
+      <c r="AI20" s="955"/>
+    </row>
+    <row r="21" spans="1:35" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="946"/>
+      <c r="B21" s="947"/>
+      <c r="C21" s="948"/>
+      <c r="D21" s="949"/>
+      <c r="E21" s="950"/>
+      <c r="F21" s="951"/>
+      <c r="G21" s="947"/>
+      <c r="H21" s="952"/>
+      <c r="I21" s="948"/>
+      <c r="J21" s="953"/>
+      <c r="K21" s="954"/>
+      <c r="L21" s="954"/>
+      <c r="M21" s="954"/>
+      <c r="N21" s="954"/>
+      <c r="O21" s="954"/>
+      <c r="P21" s="955"/>
+      <c r="Q21" s="956"/>
+      <c r="R21" s="957"/>
+      <c r="S21" s="957"/>
+      <c r="T21" s="957"/>
+      <c r="U21" s="957"/>
+      <c r="V21" s="957"/>
+      <c r="W21" s="957"/>
+      <c r="X21" s="957"/>
+      <c r="Y21" s="957"/>
+      <c r="Z21" s="957"/>
+      <c r="AA21" s="957"/>
+      <c r="AB21" s="957"/>
+      <c r="AC21" s="957"/>
+      <c r="AD21" s="957"/>
+      <c r="AE21" s="958"/>
+      <c r="AF21" s="953"/>
+      <c r="AG21" s="954"/>
+      <c r="AH21" s="954"/>
+      <c r="AI21" s="955"/>
+    </row>
+    <row r="22" spans="1:35" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="946"/>
+      <c r="B22" s="947"/>
+      <c r="C22" s="948"/>
+      <c r="D22" s="949"/>
+      <c r="E22" s="950"/>
+      <c r="F22" s="951"/>
+      <c r="G22" s="947"/>
+      <c r="H22" s="952"/>
+      <c r="I22" s="948"/>
+      <c r="J22" s="953"/>
+      <c r="K22" s="954"/>
+      <c r="L22" s="954"/>
+      <c r="M22" s="954"/>
+      <c r="N22" s="954"/>
+      <c r="O22" s="954"/>
+      <c r="P22" s="955"/>
+      <c r="Q22" s="956"/>
+      <c r="R22" s="957"/>
+      <c r="S22" s="957"/>
+      <c r="T22" s="957"/>
+      <c r="U22" s="957"/>
+      <c r="V22" s="957"/>
+      <c r="W22" s="957"/>
+      <c r="X22" s="957"/>
+      <c r="Y22" s="957"/>
+      <c r="Z22" s="957"/>
+      <c r="AA22" s="957"/>
+      <c r="AB22" s="957"/>
+      <c r="AC22" s="957"/>
+      <c r="AD22" s="957"/>
+      <c r="AE22" s="958"/>
+      <c r="AF22" s="953"/>
+      <c r="AG22" s="954"/>
+      <c r="AH22" s="954"/>
+      <c r="AI22" s="955"/>
+    </row>
+    <row r="23" spans="1:35" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="946"/>
+      <c r="B23" s="947"/>
+      <c r="C23" s="948"/>
+      <c r="D23" s="949"/>
+      <c r="E23" s="950"/>
+      <c r="F23" s="951"/>
+      <c r="G23" s="947"/>
+      <c r="H23" s="952"/>
+      <c r="I23" s="948"/>
+      <c r="J23" s="953"/>
+      <c r="K23" s="954"/>
+      <c r="L23" s="954"/>
+      <c r="M23" s="954"/>
+      <c r="N23" s="954"/>
+      <c r="O23" s="954"/>
+      <c r="P23" s="955"/>
+      <c r="Q23" s="956"/>
+      <c r="R23" s="957"/>
+      <c r="S23" s="957"/>
+      <c r="T23" s="957"/>
+      <c r="U23" s="957"/>
+      <c r="V23" s="957"/>
+      <c r="W23" s="957"/>
+      <c r="X23" s="957"/>
+      <c r="Y23" s="957"/>
+      <c r="Z23" s="957"/>
+      <c r="AA23" s="957"/>
+      <c r="AB23" s="957"/>
+      <c r="AC23" s="957"/>
+      <c r="AD23" s="957"/>
+      <c r="AE23" s="958"/>
+      <c r="AF23" s="953"/>
+      <c r="AG23" s="954"/>
+      <c r="AH23" s="954"/>
+      <c r="AI23" s="955"/>
+    </row>
+    <row r="24" spans="1:35" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="946"/>
+      <c r="B24" s="947"/>
+      <c r="C24" s="948"/>
+      <c r="D24" s="949"/>
+      <c r="E24" s="950"/>
+      <c r="F24" s="951"/>
+      <c r="G24" s="947"/>
+      <c r="H24" s="952"/>
+      <c r="I24" s="948"/>
+      <c r="J24" s="953"/>
+      <c r="K24" s="954"/>
+      <c r="L24" s="954"/>
+      <c r="M24" s="954"/>
+      <c r="N24" s="954"/>
+      <c r="O24" s="954"/>
+      <c r="P24" s="955"/>
+      <c r="Q24" s="956"/>
+      <c r="R24" s="957"/>
+      <c r="S24" s="957"/>
+      <c r="T24" s="957"/>
+      <c r="U24" s="957"/>
+      <c r="V24" s="957"/>
+      <c r="W24" s="957"/>
+      <c r="X24" s="957"/>
+      <c r="Y24" s="957"/>
+      <c r="Z24" s="957"/>
+      <c r="AA24" s="957"/>
+      <c r="AB24" s="957"/>
+      <c r="AC24" s="957"/>
+      <c r="AD24" s="957"/>
+      <c r="AE24" s="958"/>
+      <c r="AF24" s="953"/>
+      <c r="AG24" s="954"/>
+      <c r="AH24" s="954"/>
+      <c r="AI24" s="955"/>
+    </row>
+    <row r="25" spans="1:35" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="946"/>
+      <c r="B25" s="947"/>
+      <c r="C25" s="948"/>
+      <c r="D25" s="949"/>
+      <c r="E25" s="950"/>
+      <c r="F25" s="951"/>
+      <c r="G25" s="947"/>
+      <c r="H25" s="952"/>
+      <c r="I25" s="948"/>
+      <c r="J25" s="953"/>
+      <c r="K25" s="954"/>
+      <c r="L25" s="954"/>
+      <c r="M25" s="954"/>
+      <c r="N25" s="954"/>
+      <c r="O25" s="954"/>
+      <c r="P25" s="955"/>
+      <c r="Q25" s="956"/>
+      <c r="R25" s="957"/>
+      <c r="S25" s="957"/>
+      <c r="T25" s="957"/>
+      <c r="U25" s="957"/>
+      <c r="V25" s="957"/>
+      <c r="W25" s="957"/>
+      <c r="X25" s="957"/>
+      <c r="Y25" s="957"/>
+      <c r="Z25" s="957"/>
+      <c r="AA25" s="957"/>
+      <c r="AB25" s="957"/>
+      <c r="AC25" s="957"/>
+      <c r="AD25" s="957"/>
+      <c r="AE25" s="958"/>
+      <c r="AF25" s="953"/>
+      <c r="AG25" s="954"/>
+      <c r="AH25" s="954"/>
+      <c r="AI25" s="955"/>
+    </row>
+    <row r="26" spans="1:35" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="946"/>
+      <c r="B26" s="947"/>
+      <c r="C26" s="948"/>
+      <c r="D26" s="949"/>
+      <c r="E26" s="950"/>
+      <c r="F26" s="951"/>
+      <c r="G26" s="947"/>
+      <c r="H26" s="952"/>
+      <c r="I26" s="948"/>
+      <c r="J26" s="953"/>
+      <c r="K26" s="954"/>
+      <c r="L26" s="954"/>
+      <c r="M26" s="954"/>
+      <c r="N26" s="954"/>
+      <c r="O26" s="954"/>
+      <c r="P26" s="955"/>
+      <c r="Q26" s="956"/>
+      <c r="R26" s="957"/>
+      <c r="S26" s="957"/>
+      <c r="T26" s="957"/>
+      <c r="U26" s="957"/>
+      <c r="V26" s="957"/>
+      <c r="W26" s="957"/>
+      <c r="X26" s="957"/>
+      <c r="Y26" s="957"/>
+      <c r="Z26" s="957"/>
+      <c r="AA26" s="957"/>
+      <c r="AB26" s="957"/>
+      <c r="AC26" s="957"/>
+      <c r="AD26" s="957"/>
+      <c r="AE26" s="958"/>
+      <c r="AF26" s="953"/>
+      <c r="AG26" s="954"/>
+      <c r="AH26" s="954"/>
+      <c r="AI26" s="955"/>
+    </row>
+    <row r="27" spans="1:35" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="946"/>
+      <c r="B27" s="947"/>
+      <c r="C27" s="948"/>
+      <c r="D27" s="949"/>
+      <c r="E27" s="950"/>
+      <c r="F27" s="951"/>
+      <c r="G27" s="947"/>
+      <c r="H27" s="952"/>
+      <c r="I27" s="948"/>
+      <c r="J27" s="953"/>
+      <c r="K27" s="954"/>
+      <c r="L27" s="954"/>
+      <c r="M27" s="954"/>
+      <c r="N27" s="954"/>
+      <c r="O27" s="954"/>
+      <c r="P27" s="955"/>
+      <c r="Q27" s="956"/>
+      <c r="R27" s="957"/>
+      <c r="S27" s="957"/>
+      <c r="T27" s="957"/>
+      <c r="U27" s="957"/>
+      <c r="V27" s="957"/>
+      <c r="W27" s="957"/>
+      <c r="X27" s="957"/>
+      <c r="Y27" s="957"/>
+      <c r="Z27" s="957"/>
+      <c r="AA27" s="957"/>
+      <c r="AB27" s="957"/>
+      <c r="AC27" s="957"/>
+      <c r="AD27" s="957"/>
+      <c r="AE27" s="958"/>
+      <c r="AF27" s="953"/>
+      <c r="AG27" s="954"/>
+      <c r="AH27" s="954"/>
+      <c r="AI27" s="955"/>
+    </row>
+    <row r="28" spans="1:35" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="946"/>
+      <c r="B28" s="947"/>
+      <c r="C28" s="948"/>
+      <c r="D28" s="949"/>
+      <c r="E28" s="950"/>
+      <c r="F28" s="951"/>
+      <c r="G28" s="947"/>
+      <c r="H28" s="952"/>
+      <c r="I28" s="948"/>
+      <c r="J28" s="953"/>
+      <c r="K28" s="954"/>
+      <c r="L28" s="954"/>
+      <c r="M28" s="954"/>
+      <c r="N28" s="954"/>
+      <c r="O28" s="954"/>
+      <c r="P28" s="955"/>
+      <c r="Q28" s="956"/>
+      <c r="R28" s="957"/>
+      <c r="S28" s="957"/>
+      <c r="T28" s="957"/>
+      <c r="U28" s="957"/>
+      <c r="V28" s="957"/>
+      <c r="W28" s="957"/>
+      <c r="X28" s="957"/>
+      <c r="Y28" s="957"/>
+      <c r="Z28" s="957"/>
+      <c r="AA28" s="957"/>
+      <c r="AB28" s="957"/>
+      <c r="AC28" s="957"/>
+      <c r="AD28" s="957"/>
+      <c r="AE28" s="958"/>
+      <c r="AF28" s="953"/>
+      <c r="AG28" s="954"/>
+      <c r="AH28" s="954"/>
+      <c r="AI28" s="955"/>
+    </row>
+    <row r="29" spans="1:35" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="946"/>
+      <c r="B29" s="947"/>
+      <c r="C29" s="948"/>
+      <c r="D29" s="949"/>
+      <c r="E29" s="950"/>
+      <c r="F29" s="951"/>
+      <c r="G29" s="947"/>
+      <c r="H29" s="952"/>
+      <c r="I29" s="948"/>
+      <c r="J29" s="953"/>
+      <c r="K29" s="954"/>
+      <c r="L29" s="954"/>
+      <c r="M29" s="954"/>
+      <c r="N29" s="954"/>
+      <c r="O29" s="954"/>
+      <c r="P29" s="955"/>
+      <c r="Q29" s="956"/>
+      <c r="R29" s="957"/>
+      <c r="S29" s="957"/>
+      <c r="T29" s="957"/>
+      <c r="U29" s="957"/>
+      <c r="V29" s="957"/>
+      <c r="W29" s="957"/>
+      <c r="X29" s="957"/>
+      <c r="Y29" s="957"/>
+      <c r="Z29" s="957"/>
+      <c r="AA29" s="957"/>
+      <c r="AB29" s="957"/>
+      <c r="AC29" s="957"/>
+      <c r="AD29" s="957"/>
+      <c r="AE29" s="958"/>
+      <c r="AF29" s="953"/>
+      <c r="AG29" s="954"/>
+      <c r="AH29" s="954"/>
+      <c r="AI29" s="955"/>
+    </row>
+    <row r="30" spans="1:35" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="946"/>
+      <c r="B30" s="947"/>
+      <c r="C30" s="948"/>
+      <c r="D30" s="949"/>
+      <c r="E30" s="950"/>
+      <c r="F30" s="951"/>
+      <c r="G30" s="947"/>
+      <c r="H30" s="952"/>
+      <c r="I30" s="948"/>
+      <c r="J30" s="953"/>
+      <c r="K30" s="954"/>
+      <c r="L30" s="954"/>
+      <c r="M30" s="954"/>
+      <c r="N30" s="954"/>
+      <c r="O30" s="954"/>
+      <c r="P30" s="955"/>
+      <c r="Q30" s="956"/>
+      <c r="R30" s="957"/>
+      <c r="S30" s="957"/>
+      <c r="T30" s="957"/>
+      <c r="U30" s="957"/>
+      <c r="V30" s="957"/>
+      <c r="W30" s="957"/>
+      <c r="X30" s="957"/>
+      <c r="Y30" s="957"/>
+      <c r="Z30" s="957"/>
+      <c r="AA30" s="957"/>
+      <c r="AB30" s="957"/>
+      <c r="AC30" s="957"/>
+      <c r="AD30" s="957"/>
+      <c r="AE30" s="958"/>
+      <c r="AF30" s="953"/>
+      <c r="AG30" s="954"/>
+      <c r="AH30" s="954"/>
+      <c r="AI30" s="955"/>
+    </row>
+    <row r="31" spans="1:35" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="946"/>
+      <c r="B31" s="947"/>
+      <c r="C31" s="948"/>
+      <c r="D31" s="949"/>
+      <c r="E31" s="950"/>
+      <c r="F31" s="951"/>
+      <c r="G31" s="947"/>
+      <c r="H31" s="952"/>
+      <c r="I31" s="948"/>
+      <c r="J31" s="953"/>
+      <c r="K31" s="954"/>
+      <c r="L31" s="954"/>
+      <c r="M31" s="954"/>
+      <c r="N31" s="954"/>
+      <c r="O31" s="954"/>
+      <c r="P31" s="955"/>
+      <c r="Q31" s="956"/>
+      <c r="R31" s="957"/>
+      <c r="S31" s="957"/>
+      <c r="T31" s="957"/>
+      <c r="U31" s="957"/>
+      <c r="V31" s="957"/>
+      <c r="W31" s="957"/>
+      <c r="X31" s="957"/>
+      <c r="Y31" s="957"/>
+      <c r="Z31" s="957"/>
+      <c r="AA31" s="957"/>
+      <c r="AB31" s="957"/>
+      <c r="AC31" s="957"/>
+      <c r="AD31" s="957"/>
+      <c r="AE31" s="958"/>
+      <c r="AF31" s="953"/>
+      <c r="AG31" s="954"/>
+      <c r="AH31" s="954"/>
+      <c r="AI31" s="955"/>
+    </row>
+    <row r="32" spans="1:35" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="946"/>
+      <c r="B32" s="947"/>
+      <c r="C32" s="948"/>
+      <c r="D32" s="949"/>
+      <c r="E32" s="950"/>
+      <c r="F32" s="951"/>
+      <c r="G32" s="947"/>
+      <c r="H32" s="952"/>
+      <c r="I32" s="948"/>
+      <c r="J32" s="953"/>
+      <c r="K32" s="959"/>
+      <c r="L32" s="954"/>
+      <c r="M32" s="954"/>
+      <c r="N32" s="954"/>
+      <c r="O32" s="954"/>
+      <c r="P32" s="955"/>
+      <c r="Q32" s="956"/>
+      <c r="R32" s="957"/>
+      <c r="S32" s="957"/>
+      <c r="T32" s="957"/>
+      <c r="U32" s="957"/>
+      <c r="V32" s="957"/>
+      <c r="W32" s="957"/>
+      <c r="X32" s="957"/>
+      <c r="Y32" s="957"/>
+      <c r="Z32" s="957"/>
+      <c r="AA32" s="957"/>
+      <c r="AB32" s="957"/>
+      <c r="AC32" s="957"/>
+      <c r="AD32" s="957"/>
+      <c r="AE32" s="958"/>
+      <c r="AF32" s="953"/>
+      <c r="AG32" s="954"/>
+      <c r="AH32" s="954"/>
+      <c r="AI32" s="955"/>
+    </row>
+    <row r="33" spans="1:35" s="938" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="946"/>
+      <c r="B33" s="947"/>
+      <c r="C33" s="948"/>
+      <c r="D33" s="949"/>
+      <c r="E33" s="950"/>
+      <c r="F33" s="951"/>
+      <c r="G33" s="947"/>
+      <c r="H33" s="952"/>
+      <c r="I33" s="948"/>
+      <c r="J33" s="953"/>
+      <c r="K33" s="954"/>
+      <c r="L33" s="954"/>
+      <c r="M33" s="954"/>
+      <c r="N33" s="954"/>
+      <c r="O33" s="954"/>
+      <c r="P33" s="955"/>
+      <c r="Q33" s="956"/>
+      <c r="R33" s="957"/>
+      <c r="S33" s="957"/>
+      <c r="T33" s="957"/>
+      <c r="U33" s="957"/>
+      <c r="V33" s="957"/>
+      <c r="W33" s="957"/>
+      <c r="X33" s="957"/>
+      <c r="Y33" s="957"/>
+      <c r="Z33" s="957"/>
+      <c r="AA33" s="957"/>
+      <c r="AB33" s="957"/>
+      <c r="AC33" s="957"/>
+      <c r="AD33" s="957"/>
+      <c r="AE33" s="958"/>
+      <c r="AF33" s="953"/>
+      <c r="AG33" s="954"/>
+      <c r="AH33" s="954"/>
+      <c r="AI33" s="955"/>
+    </row>
+    <row r="34" spans="1:35" ht="15.75">
+      <c r="K34" s="961"/>
+    </row>
+  </sheetData>
+  <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
@@ -12942,7 +16074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
@@ -16185,7 +19317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
@@ -19412,7 +22544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
